--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3243.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3243.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.697759312982853</v>
+        <v>1.000106692314148</v>
       </c>
       <c r="B1">
-        <v>2.447666905277897</v>
+        <v>0.916583776473999</v>
       </c>
       <c r="C1">
-        <v>2.650057505703458</v>
+        <v>0.7083269357681274</v>
       </c>
       <c r="D1">
-        <v>3.233846592719139</v>
+        <v>0.6849868297576904</v>
       </c>
       <c r="E1">
-        <v>2.357241922476835</v>
+        <v>0.7384288907051086</v>
       </c>
     </row>
   </sheetData>
